--- a/src/merlin_commands.xlsx
+++ b/src/merlin_commands.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chen/Dropbox/_rfi/labs/ruska/detectors/medipix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chen/.julia/dev/Medipix/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7CFF6F-ACA6-A14F-9FD6-11408694AF99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C25AA1-EFFA-3C42-9E7D-99CA90BED58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{14ABAB92-EE57-A947-B185-AB5341DF6452}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{14ABAB92-EE57-A947-B185-AB5341DF6452}"/>
   </bookViews>
   <sheets>
     <sheet name="Execute Commands (CMD type)" sheetId="1" r:id="rId1"/>
-    <sheet name="Acquisition Modes" sheetId="2" r:id="rId2"/>
-    <sheet name="Acquisition &amp; Trigger Control" sheetId="3" r:id="rId3"/>
-    <sheet name="System Set Up" sheetId="4" r:id="rId4"/>
-    <sheet name="Threshold Scan Control" sheetId="5" r:id="rId5"/>
-    <sheet name="DAC Scan Control" sheetId="6" r:id="rId6"/>
-    <sheet name="Local File Saving Control" sheetId="7" r:id="rId7"/>
-    <sheet name="Status" sheetId="8" r:id="rId8"/>
-    <sheet name="Local Conﬁguration" sheetId="9" r:id="rId9"/>
+    <sheet name="Example" sheetId="10" r:id="rId2"/>
+    <sheet name="Acquisition Modes" sheetId="2" r:id="rId3"/>
+    <sheet name="Acquisition &amp; Trigger Control" sheetId="3" r:id="rId4"/>
+    <sheet name="System Set Up" sheetId="4" r:id="rId5"/>
+    <sheet name="Threshold Scan Control" sheetId="5" r:id="rId6"/>
+    <sheet name="DAC Scan Control" sheetId="6" r:id="rId7"/>
+    <sheet name="Local File Saving Control" sheetId="7" r:id="rId8"/>
+    <sheet name="Status" sheetId="8" r:id="rId9"/>
+    <sheet name="Local Conﬁguration" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="209">
   <si>
     <t>Name</t>
   </si>
@@ -773,12 +774,21 @@
   <si>
     <t>0 – 120</t>
   </si>
+  <si>
+    <t>Format/Range</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>0=Trigger In TTL 1=Trigger In LVDS 2=Trigger In TTL Delayed 3=Trigger In LVDS Delayed 4=Follow Shutter 5=One per Acq Burst 6=Shutter and Sensor Readout 7=Busy 8=Soft Trigger Out12 9=Clock Out</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -828,6 +838,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -849,13 +872,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,18 +1197,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764CB313-6693-5F4D-B316-A2BFE0EAC27D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="197" zoomScaleNormal="197" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="123.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1241,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1252,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1274,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1285,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1296,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1293,7 +1318,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1329,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1315,42 +1340,109 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D576FBE7-C9C7-B84F-A473-A3511ADA66E1}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="5" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="41.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,419 +1450,333 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FC5805-2341-364C-B7BD-8A0A1AE9A634}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFF1A59-3F81-2642-A918-EAA65EC230ED}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="C23" sqref="A1:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+      <c r="E1" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1778,14 +1784,434 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FC5805-2341-364C-B7BD-8A0A1AE9A634}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="4" max="4" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38E5828-DC81-4541-9DF9-E584C136340E}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="C23" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" style="5" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="5"/>
@@ -1794,7 +2220,7 @@
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +2237,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -1828,7 +2254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1845,7 +2271,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1862,7 +2288,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1876,7 +2302,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1890,7 +2316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
@@ -1907,7 +2333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1921,7 +2347,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -1935,7 +2361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1949,7 +2375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -1963,7 +2389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -1980,7 +2406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -1997,7 +2423,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -2011,7 +2437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
@@ -2025,7 +2451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -2039,7 +2465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -2053,7 +2479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -2067,7 +2493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -2086,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB68386C-3393-9445-AD48-022CBA5DA724}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2094,7 +2520,7 @@
       <selection activeCell="C23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="5"/>
@@ -2103,7 +2529,7 @@
     <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2543,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -2131,7 +2557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
@@ -2145,7 +2571,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -2159,7 +2585,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -2173,7 +2599,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2187,7 +2613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
@@ -2201,7 +2627,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
@@ -2215,7 +2641,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
@@ -2229,7 +2655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -2243,7 +2669,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -2257,7 +2683,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -2271,7 +2697,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>76</v>
       </c>
@@ -2290,7 +2716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7B1C7E-4441-9F47-A3E9-86359413E0F8}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2298,14 +2724,14 @@
       <selection activeCell="A4" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2322,7 +2748,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2337,7 +2763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>78</v>
       </c>
@@ -2354,7 +2780,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -2371,7 +2797,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -2388,7 +2814,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
@@ -2403,7 +2829,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>82</v>
       </c>
@@ -2418,7 +2844,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>84</v>
       </c>
@@ -2438,7 +2864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE18710-056B-7446-9FBD-DCC9EE9B0655}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -2446,7 +2872,7 @@
       <selection activeCell="D12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="5" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="5"/>
@@ -2455,7 +2881,7 @@
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2898,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -2486,7 +2912,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -2500,7 +2926,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -2514,7 +2940,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -2533,15 +2959,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5DBA8-9BBE-3845-B0D6-17DDCEE525F6}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="5" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="5"/>
@@ -2550,7 +2976,7 @@
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2993,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -2581,7 +3007,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
@@ -2595,7 +3021,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
@@ -2609,7 +3035,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
@@ -2623,7 +3049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
@@ -2637,7 +3063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>94</v>
       </c>
@@ -2651,7 +3077,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>96</v>
       </c>
@@ -2670,15 +3096,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E44DCA1-0D67-114B-858B-52538C5B57F8}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:XFD1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="5" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="5"/>
@@ -2687,7 +3113,7 @@
     <col min="6" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +3130,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
@@ -2718,7 +3144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>99</v>
       </c>
@@ -2735,7 +3161,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -2750,73 +3176,6 @@
       </c>
       <c r="E4" s="3" t="s">
         <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D576FBE7-C9C7-B84F-A473-A3511ADA66E1}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="20.5" style="5" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="41.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
